--- a/testing/d0c_b.xlsx
+++ b/testing/d0c_b.xlsx
@@ -2235,10 +2235,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="17">
-        <v>-0.022560834200826777</v>
+        <v>-1.0099514125774056</v>
       </c>
       <c r="C3" s="20">
-        <v>-0.020941139891666766</v>
+        <v>-0.99628184150496013</v>
       </c>
     </row>
     <row r="4">
@@ -2246,10 +2246,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="25">
-        <v>0.25493154933523032</v>
+        <v>-1.0020966887339296</v>
       </c>
       <c r="C4" s="28">
-        <v>0.25746544529336679</v>
+        <v>-0.98534907595284949</v>
       </c>
     </row>
     <row r="5">
@@ -2257,10 +2257,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="33">
-        <v>0.50841922563949893</v>
+        <v>-0.98231031340247543</v>
       </c>
       <c r="C5" s="36">
-        <v>0.51184362743857914</v>
+        <v>-0.96371712264362719</v>
       </c>
     </row>
     <row r="6">
@@ -2268,10 +2268,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="41">
-        <v>0.7620468185117244</v>
+        <v>-1.010322508677292</v>
       </c>
       <c r="C6" s="44">
-        <v>0.76621520586896941</v>
+        <v>-0.9901294300598823</v>
       </c>
     </row>
     <row r="7">
@@ -2279,10 +2279,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="49">
-        <v>1.0054596575857811</v>
+        <v>-0.9500542817907317</v>
       </c>
       <c r="C7" s="52">
-        <v>1.0103285248441578</v>
+        <v>-0.92876948679706606</v>
       </c>
     </row>
     <row r="8">
@@ -2295,10 +2295,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="59">
-        <v>0.48602779568143784</v>
+        <v>0.070506206282825126</v>
       </c>
       <c r="C9" s="62">
-        <v>0.48610233360702115</v>
+        <v>0.069869312552049354</v>
       </c>
     </row>
     <row r="10">
@@ -2339,10 +2339,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="91">
-        <v>0.16693965301959371</v>
+        <v>0.12066991499573686</v>
       </c>
       <c r="C13" s="94">
-        <v>0.16663429351897141</v>
+        <v>0.11930353682840983</v>
       </c>
     </row>
     <row r="14">
@@ -2350,10 +2350,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="99">
-        <v>0.69871501118673895</v>
+        <v>1.7084690953288504</v>
       </c>
       <c r="C14" s="102">
-        <v>0.69722851722762336</v>
+        <v>1.7010545977157492</v>
       </c>
     </row>
     <row r="15">
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="109">
-        <v>-0.037635328969158818</v>
+        <v>-0.2232463549633503</v>
       </c>
     </row>
     <row r="17">
@@ -2374,7 +2374,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="114">
-        <v>0.0050309016030765799</v>
+        <v>-0.084037505274748722</v>
       </c>
     </row>
     <row r="18">
@@ -2382,7 +2382,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="119">
-        <v>0.020726205059063228</v>
+        <v>0.029509486888930313</v>
       </c>
     </row>
     <row r="19">
@@ -2390,7 +2390,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="124">
-        <v>-2.9791610446926882</v>
+        <v>-1.5087899445940627</v>
       </c>
     </row>
     <row r="20">
@@ -2398,7 +2398,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="129">
-        <v>0.70377147897154979</v>
+        <v>0.025943025357203889</v>
       </c>
     </row>
     <row r="21">
@@ -2406,10 +2406,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="136">
-        <v>7773</v>
+        <v>8267</v>
       </c>
       <c r="C21" s="140">
-        <v>9578</v>
+        <v>10204</v>
       </c>
     </row>
   </sheetData>
